--- a/version.xlsx
+++ b/version.xlsx
@@ -522,7 +522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +622,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -664,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -725,6 +733,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,11 +1539,11 @@
       <c r="A52" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>83</v>
+      <c r="B52" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2758,8 +2769,8 @@
       <c r="B169" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C169" s="19" t="s">
-        <v>63</v>
+      <c r="C169" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
